--- a/Stata/beta.xlsx
+++ b/Stata/beta.xlsx
@@ -114,7 +114,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.0075459776394473923</v>
+        <v>-0.0074257969549297353</v>
       </c>
     </row>
     <row r="3">
@@ -130,7 +130,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.019438812315184691</v>
+        <v>-0.021164895635322683</v>
       </c>
     </row>
     <row r="5">
@@ -138,7 +138,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.063070194882862155</v>
+        <v>-0.070302205579692134</v>
       </c>
     </row>
     <row r="6">
@@ -146,7 +146,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.28347962489834538</v>
+        <v>-0.20254474077803125</v>
       </c>
     </row>
     <row r="7">
@@ -154,7 +154,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.56787756534908573</v>
+        <v>0.58163984142033165</v>
       </c>
     </row>
     <row r="8">
@@ -162,7 +162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.19539151177896841</v>
+        <v>-0.19014030198723705</v>
       </c>
     </row>
     <row r="9">
@@ -178,7 +178,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.12736227033289971</v>
+        <v>0.12663625318142149</v>
       </c>
     </row>
     <row r="11">
@@ -194,7 +194,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.076824125164329987</v>
+        <v>-0.088178983128388566</v>
       </c>
     </row>
     <row r="13">
@@ -202,7 +202,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.10552918603068637</v>
+        <v>0.098116295064896664</v>
       </c>
     </row>
     <row r="14">
@@ -210,7 +210,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.085018088007600537</v>
+        <v>-0.10164986187615825</v>
       </c>
     </row>
   </sheetData>
